--- a/medicine/Mort/Cimetière_de_Stahnsdorf/Cimetière_de_Stahnsdorf.xlsx
+++ b/medicine/Mort/Cimetière_de_Stahnsdorf/Cimetière_de_Stahnsdorf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Stahnsdorf</t>
+          <t>Cimetière_de_Stahnsdorf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Sud-Ouest de Stahnsdorf[1],[2] (en allemand : Südwestkirchhof Stahnsdorf) ou en forme longue le cimetière Sud-Ouest du synode berlinois à Stahnsdorf (Südwestkirchhof der Berliner Stadtsynode in Stahnsdorf) est un cimetière brandebourgeois situé à Stahnsdorf, aux abords sud-ouest de Berlin en Allemagne. Il a été fondé en 1909 par les paroisses protestantes de l'union synodale berlinoise (Berliner Stadtsynodalverband).
-Occupant une superficie totale de 206 hectares, le cimetiére se classe au dixième rang mondial[3], et il est le deuxième cimetière allemand après le cimetière d'Ohlsdorf à Hambourg.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Sud-Ouest de Stahnsdorf, (en allemand : Südwestkirchhof Stahnsdorf) ou en forme longue le cimetière Sud-Ouest du synode berlinois à Stahnsdorf (Südwestkirchhof der Berliner Stadtsynode in Stahnsdorf) est un cimetière brandebourgeois situé à Stahnsdorf, aux abords sud-ouest de Berlin en Allemagne. Il a été fondé en 1909 par les paroisses protestantes de l'union synodale berlinoise (Berliner Stadtsynodalverband).
+Occupant une superficie totale de 206 hectares, le cimetiére se classe au dixième rang mondial, et il est le deuxième cimetière allemand après le cimetière d'Ohlsdorf à Hambourg.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Stahnsdorf</t>
+          <t>Cimetière_de_Stahnsdorf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Stahnsdorf</t>
+          <t>Cimetière_de_Stahnsdorf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Georg von Arco (1869-1940), physicien et pacifiste ;
 Lola Artôt de Padilla (1876-1933), soprano ;
